--- a/deploy/output/output.xlsx
+++ b/deploy/output/output.xlsx
@@ -13,18 +13,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>مبدا</t>
   </si>
   <si>
-    <t>سی ریز</t>
+    <t>سرخس</t>
   </si>
   <si>
     <t>مقصد</t>
   </si>
   <si>
-    <t>کرمان</t>
+    <t>بندرامام خمینی</t>
   </si>
   <si>
     <t>x</t>
@@ -51,10 +51,10 @@
     <t>بیرون زدگی از حد مجاز</t>
   </si>
   <si>
-    <t>سی ریز - پورمند</t>
-  </si>
-  <si>
-    <t>گاباری 4.9</t>
+    <t>سرخس - بهرام</t>
+  </si>
+  <si>
+    <t>گاباری 5.2</t>
   </si>
   <si>
     <t>غیر قابل عبور</t>
@@ -63,10 +63,34 @@
     <t>قابل عبور</t>
   </si>
   <si>
-    <t>پورمند - کرمان</t>
+    <t>بهرام - رابط ساقه</t>
   </si>
   <si>
     <t>گاباری 5.4</t>
+  </si>
+  <si>
+    <t>رابط ساقه - ساقه</t>
+  </si>
+  <si>
+    <t>نامشخص</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ساقه - باغ یک</t>
+  </si>
+  <si>
+    <t>باغ یک - سواریان</t>
+  </si>
+  <si>
+    <t>سواریان - نورآباد</t>
+  </si>
+  <si>
+    <t>نورآباد - بندرامام خمینی</t>
+  </si>
+  <si>
+    <t>گاباری ۴.۷</t>
   </si>
 </sst>
 </file>
@@ -74,13 +98,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
     </font>
     <font>
       <name val="B Zar"/>
@@ -149,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +207,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -166,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="true"/>
   </sheetViews>
@@ -198,74 +262,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>230.0</v>
+        <v>240.0</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>465.0</v>
+        <v>426.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="B5" t="n" s="1">
-        <v>315.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>92.5</v>
+        <v>300.0</v>
       </c>
       <c r="B6" t="n" s="1">
-        <v>315.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>92.5</v>
+        <v>325.0</v>
       </c>
       <c r="B7" t="n" s="1">
-        <v>120.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>407.5</v>
+        <v>325.0</v>
       </c>
       <c r="B8" t="n" s="1">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>407.5</v>
-      </c>
-      <c r="B9" t="n" s="1">
-        <v>315.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="1">
-        <v>350.0</v>
-      </c>
-      <c r="B10" t="n" s="1">
-        <v>315.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="1">
-        <v>270.0</v>
-      </c>
-      <c r="B11" t="n" s="1">
-        <v>465.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="1">
-        <v>230.0</v>
-      </c>
-      <c r="B12" t="n" s="1">
-        <v>465.0</v>
+        <v>125.0</v>
       </c>
     </row>
   </sheetData>
@@ -275,7 +307,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
@@ -312,7 +344,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>15</v>
@@ -329,15 +361,115 @@
         <v>17</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="s" s="3">
         <v>15</v>
       </c>
       <c r="F3" t="n" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n" s="8">
+        <v>25.809397513308983</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n" s="8">
         <v>0.0</v>
       </c>
     </row>
